--- a/core/utils/distgradeunificadaCAMPINASNAOOFICIAL.xlsx
+++ b/core/utils/distgradeunificadaCAMPINASNAOOFICIAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F31CCE-A911-4BFB-96CC-6196BD444EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAE906E-E73F-4371-9CFE-7FB9C681755C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="113">
   <si>
     <t>PROJETO</t>
   </si>
@@ -904,11 +904,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414053F0-9035-4345-833E-9715016AA804}">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,20 +1087,12 @@
         <v>7</v>
       </c>
       <c r="G5" s="23"/>
-      <c r="H5" s="23">
-        <v>3</v>
-      </c>
-      <c r="I5" s="23">
-        <v>1</v>
-      </c>
-      <c r="J5" s="23">
-        <v>1</v>
-      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
-      <c r="M5" s="23">
-        <v>1</v>
-      </c>
+      <c r="M5" s="23"/>
       <c r="N5" s="23"/>
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
@@ -1126,15 +1118,9 @@
         <v>7</v>
       </c>
       <c r="G6" s="23"/>
-      <c r="H6" s="23">
-        <v>1</v>
-      </c>
-      <c r="I6" s="23">
-        <v>5</v>
-      </c>
-      <c r="J6" s="23">
-        <v>3</v>
-      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
@@ -1164,9 +1150,7 @@
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="23">
-        <v>1</v>
-      </c>
+      <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
@@ -1198,9 +1182,7 @@
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
-      <c r="J8" s="23">
-        <v>2</v>
-      </c>
+      <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
@@ -1674,77 +1656,87 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
     </row>
-    <row r="24" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="D24" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23">
+        <v>1</v>
+      </c>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
     </row>
     <row r="25" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
+      <c r="A25" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23">
+        <v>4</v>
+      </c>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23">
+        <v>1</v>
+      </c>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23">
+        <v>3</v>
+      </c>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>68</v>
@@ -1753,7 +1745,7 @@
         <v>38</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -1772,10 +1764,10 @@
         <v>39</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>68</v>
@@ -1784,7 +1776,7 @@
         <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -1803,10 +1795,10 @@
         <v>39</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>68</v>
@@ -1815,7 +1807,7 @@
         <v>38</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -1834,10 +1826,10 @@
         <v>39</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>68</v>
@@ -1846,7 +1838,7 @@
         <v>38</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -1865,10 +1857,10 @@
         <v>39</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>68</v>
@@ -1877,7 +1869,7 @@
         <v>38</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -1896,10 +1888,10 @@
         <v>39</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>68</v>
@@ -1908,7 +1900,7 @@
         <v>38</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -1927,10 +1919,10 @@
         <v>39</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>68</v>
@@ -1939,7 +1931,7 @@
         <v>38</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -1954,45 +1946,45 @@
       <c r="Q32" s="9"/>
     </row>
     <row r="33" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
+      <c r="A33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
     </row>
     <row r="34" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>68</v>
@@ -2001,7 +1993,7 @@
         <v>38</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -2020,10 +2012,10 @@
         <v>39</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>68</v>
@@ -2032,7 +2024,7 @@
         <v>38</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -2051,10 +2043,10 @@
         <v>39</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>68</v>
@@ -2063,7 +2055,7 @@
         <v>38</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -2082,10 +2074,10 @@
         <v>39</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>68</v>
@@ -2094,7 +2086,7 @@
         <v>38</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
@@ -2113,10 +2105,10 @@
         <v>39</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>68</v>
@@ -2125,7 +2117,7 @@
         <v>38</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
@@ -2144,10 +2136,10 @@
         <v>39</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>68</v>
@@ -2156,7 +2148,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
@@ -2175,10 +2167,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>68</v>
@@ -2187,7 +2179,7 @@
         <v>38</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
@@ -2202,45 +2194,45 @@
       <c r="Q40" s="18"/>
     </row>
     <row r="41" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A41" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="A41" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
     </row>
     <row r="42" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>68</v>
@@ -2249,7 +2241,7 @@
         <v>38</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
@@ -2268,10 +2260,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>68</v>
@@ -2280,7 +2272,7 @@
         <v>38</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
@@ -2299,10 +2291,10 @@
         <v>39</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>68</v>
@@ -2311,7 +2303,7 @@
         <v>38</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
@@ -2330,10 +2322,10 @@
         <v>39</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>68</v>
@@ -2342,7 +2334,7 @@
         <v>38</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -2361,10 +2353,10 @@
         <v>39</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>68</v>
@@ -2373,7 +2365,7 @@
         <v>38</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
@@ -2392,10 +2384,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>68</v>
@@ -2404,7 +2396,7 @@
         <v>38</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
@@ -2423,10 +2415,10 @@
         <v>39</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>68</v>
@@ -2435,7 +2427,7 @@
         <v>38</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
@@ -2454,10 +2446,10 @@
         <v>39</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>68</v>
@@ -2466,7 +2458,7 @@
         <v>38</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
@@ -2485,10 +2477,10 @@
         <v>39</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>68</v>
@@ -2497,7 +2489,7 @@
         <v>38</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
@@ -2515,11 +2507,11 @@
       <c r="A51" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>108</v>
+      <c r="B51" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>68</v>
@@ -2528,7 +2520,7 @@
         <v>38</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
@@ -2546,11 +2538,11 @@
       <c r="A52" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>109</v>
+      <c r="B52" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>68</v>
@@ -2559,7 +2551,7 @@
         <v>38</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
@@ -2573,6 +2565,37 @@
       <c r="P52" s="17"/>
       <c r="Q52" s="17"/>
     </row>
+    <row r="53" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A53" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/core/utils/distgradeunificadaCAMPINASNAOOFICIAL.xlsx
+++ b/core/utils/distgradeunificadaCAMPINASNAOOFICIAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAE906E-E73F-4371-9CFE-7FB9C681755C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C2ECE1-0B3B-4D22-A6B7-E506152F07D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -908,7 +908,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,9 +1679,7 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
-      <c r="K24" s="23">
-        <v>1</v>
-      </c>
+      <c r="K24" s="23"/>
       <c r="L24" s="23"/>
       <c r="M24" s="23"/>
       <c r="N24" s="23"/>
@@ -1710,23 +1708,15 @@
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
-      <c r="I25" s="23">
-        <v>4</v>
-      </c>
+      <c r="I25" s="23"/>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
-      <c r="L25" s="23">
-        <v>1</v>
-      </c>
+      <c r="L25" s="23"/>
       <c r="M25" s="23"/>
-      <c r="N25" s="23">
-        <v>3</v>
-      </c>
+      <c r="N25" s="23"/>
       <c r="O25" s="23"/>
       <c r="P25" s="23"/>
-      <c r="Q25" s="23">
-        <v>3</v>
-      </c>
+      <c r="Q25" s="23"/>
     </row>
     <row r="26" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">

--- a/core/utils/distgradeunificadaCAMPINASNAOOFICIAL.xlsx
+++ b/core/utils/distgradeunificadaCAMPINASNAOOFICIAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C2ECE1-0B3B-4D22-A6B7-E506152F07D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A6CC0C-312E-404F-BFE3-A1BC270E8641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="114">
   <si>
     <t>PROJETO</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>CALÇA</t>
+  </si>
+  <si>
+    <t>CAMISETA REGATA</t>
   </si>
 </sst>
 </file>
@@ -908,7 +911,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,7 +1670,7 @@
         <v>29</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>38</v>
